--- a/Blockchain_POC_Dataset.xlsx
+++ b/Blockchain_POC_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:H25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="46">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -80,6 +80,81 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>Trail_ID</t>
+  </si>
+  <si>
+    <t>Visit_Date</t>
+  </si>
+  <si>
+    <t>Visit_Time_In</t>
+  </si>
+  <si>
+    <t>Visit_Time_Out</t>
+  </si>
+  <si>
+    <t>VI_PA_TA1_1_1</t>
+  </si>
+  <si>
+    <t>VI_PA_TA1_1_2</t>
+  </si>
+  <si>
+    <t>VI_PA_TA1_2_1</t>
+  </si>
+  <si>
+    <t>VI_PA_TA1_2_2</t>
+  </si>
+  <si>
+    <t>VI_PA_TA2_1_1</t>
+  </si>
+  <si>
+    <t>VI_PA_TA2_1_2</t>
+  </si>
+  <si>
+    <t>VI_PA_TA2_2_1</t>
+  </si>
+  <si>
+    <t>VI_PA_TB1_1_1</t>
+  </si>
+  <si>
+    <t>VI_PA_TB1_1_2</t>
+  </si>
+  <si>
+    <t>VI_PA_TB1_2_1</t>
+  </si>
+  <si>
+    <t>PA_TA1_1</t>
+  </si>
+  <si>
+    <t>PA_TA1_2</t>
+  </si>
+  <si>
+    <t>PA_TA2_1</t>
+  </si>
+  <si>
+    <t>PA_TA2_2</t>
+  </si>
+  <si>
+    <t>PA_TB1_1</t>
+  </si>
+  <si>
+    <t>PA_TB1_2</t>
+  </si>
+  <si>
+    <t>SI_TA1_TA2</t>
+  </si>
+  <si>
+    <t>SI_TB1</t>
+  </si>
+  <si>
+    <t>TA1</t>
+  </si>
+  <si>
+    <t>TA2</t>
+  </si>
+  <si>
+    <t>TB1</t>
   </si>
 </sst>
 </file>
@@ -129,9 +204,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,9 +524,10 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -460,443 +538,575 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43101</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
       </c>
       <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43132</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
       </c>
       <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43101</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
       </c>
       <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43132</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
       </c>
       <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43115</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
       </c>
       <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43146</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>18</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
       </c>
       <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43120</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
         <v>17</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
       </c>
       <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43120</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
+      <c r="N9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
       </c>
       <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3">
+        <v>43151</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
+      <c r="N10" t="s">
         <v>18</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
       </c>
       <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43125</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Blockchain_POC_Dataset.xlsx
+++ b/Blockchain_POC_Dataset.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <oleSize ref="A1:H25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -97,64 +100,13 @@
     <t>VI_PA_TA1_1_1</t>
   </si>
   <si>
-    <t>VI_PA_TA1_1_2</t>
-  </si>
-  <si>
-    <t>VI_PA_TA1_2_1</t>
-  </si>
-  <si>
-    <t>VI_PA_TA1_2_2</t>
-  </si>
-  <si>
-    <t>VI_PA_TA2_1_1</t>
-  </si>
-  <si>
-    <t>VI_PA_TA2_1_2</t>
-  </si>
-  <si>
-    <t>VI_PA_TA2_2_1</t>
-  </si>
-  <si>
-    <t>VI_PA_TB1_1_1</t>
-  </si>
-  <si>
-    <t>VI_PA_TB1_1_2</t>
-  </si>
-  <si>
-    <t>VI_PA_TB1_2_1</t>
-  </si>
-  <si>
     <t>PA_TA1_1</t>
   </si>
   <si>
-    <t>PA_TA1_2</t>
-  </si>
-  <si>
-    <t>PA_TA2_1</t>
-  </si>
-  <si>
-    <t>PA_TA2_2</t>
-  </si>
-  <si>
-    <t>PA_TB1_1</t>
-  </si>
-  <si>
-    <t>PA_TB1_2</t>
-  </si>
-  <si>
     <t>SI_TA1_TA2</t>
   </si>
   <si>
-    <t>SI_TB1</t>
-  </si>
-  <si>
     <t>TA1</t>
-  </si>
-  <si>
-    <t>TA2</t>
-  </si>
-  <si>
-    <t>TB1</t>
   </si>
 </sst>
 </file>
@@ -213,8 +165,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -516,7 +496,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,13 +565,13 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3">
         <v>43101</v>
@@ -634,481 +614,49 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43132</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43101</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>19</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="3">
-        <v>43132</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="3">
-        <v>43115</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>19</v>
-      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43146</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>19</v>
-      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43120</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>19</v>
-      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3">
-        <v>43120</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>19</v>
-      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3">
-        <v>43151</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>19</v>
-      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3">
-        <v>43125</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>19</v>
-      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Blockchain_POC_Dataset.xlsx
+++ b/Blockchain_POC_Dataset.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manish.tomar\Desktop\folder\clinical-trial\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6075"/>
   </bookViews>
@@ -15,12 +20,11 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -100,13 +104,46 @@
     <t>VI_PA_TA1_1_1</t>
   </si>
   <si>
-    <t>PA_TA1_1</t>
-  </si>
-  <si>
     <t>SI_TA1_TA2</t>
   </si>
   <si>
     <t>TA1</t>
+  </si>
+  <si>
+    <t>PA_TA1_V_1</t>
+  </si>
+  <si>
+    <t>PA_TA1_V_2</t>
+  </si>
+  <si>
+    <t>VI_PA_TA1_1_2</t>
+  </si>
+  <si>
+    <t>SI_TA1_TA3</t>
+  </si>
+  <si>
+    <t>uu</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
@@ -493,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +544,7 @@
     <col min="4" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,18 +597,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
       </c>
       <c r="E2" s="3">
         <v>43101</v>
@@ -613,47 +650,95 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43101</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
